--- a/biology/Zoologie/Camponotus_theobaldi/Camponotus_theobaldi.xlsx
+++ b/biology/Zoologie/Camponotus_theobaldi/Camponotus_theobaldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camponotus saussurei
 Camponotus theobaldi est une espèce fossile d'insectes hyménoptères fourmis de la tribu des Camponotini (sous-famille des Formicinae).
@@ -512,18 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Camponotus theobaldi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom †Camponotus saussurei[1],[2]. 
-Fossile holotype
-Cet holotype Am4 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections du Muséum national d'histoire naturelle de Paris[3] et du gypse d'Aix-en-Provence[1]. 
-Étymologie
-Pour l'espèce synonyme Camponotus saussurei, l'épithète spécifique, saussurei rend hommage à la famille de Saussure, dont au moins trois membres sont naturaliste, chimiste et botaniste, ou entomologiste.
-L'épithète spécifique theobaldi rend hommage à Nicolas Théobald.
-Renommage
-Le nouveau nom a été publié en 2010 par l'entomologiste et taxonomiste turc Hüseyin Özdikmen (1966-)[2],[4].
-Confirmation du genre
-En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus[5],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Camponotus theobaldi est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le nom †Camponotus saussurei,. 
 </t>
         </is>
       </c>
@@ -549,18 +554,244 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossile holotype</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype Am4 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections du Muséum national d'histoire naturelle de Paris et du gypse d'Aix-en-Provence. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'espèce synonyme Camponotus saussurei, l'épithète spécifique, saussurei rend hommage à la famille de Saussure, dont au moins trois membres sont naturaliste, chimiste et botaniste, ou entomologiste.
+L'épithète spécifique theobaldi rend hommage à Nicolas Théobald.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau nom a été publié en 2010 par l'entomologiste et taxonomiste turc Hüseyin Özdikmen (1966-),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : Pour l'holotype ♂ Am4 
-« Corps noir brunâtre ; ailes effacées, courtes, ne dépassant pas la longueur de l'abdomen. Tête arrondie ; semble plus longue que large parce que les mandibules font saillie ; yeux de forme ovale, placés vers le milieu de la tête ; clypéus non visible ; antennes coudées ; scape assez long, dépassant la tête vers l'arrière, funicule formé d'articles presque effacés. Cou net. Thorax ovale ; segmentation apparente ; pronotum visible sur le dos ; mésonotum large ; scutellum plus étroit ; pétiole formé d'un seul segment, mince et cylindrique à l'avant, renflé en nœud à l'arrière. Abdomen allongé, subcylindrique, rétréci à l'arrière. Pattes assez fortes et longues. Ailes transparentes ; nervation de Camponotus. »[1].
-Dimensions
-La longueur totale est de 9,5 mm[1].
-Affinités
-« L'échantillon présente les caractères des Camponotini. L'absence de cellule discoïdale écarte le g. Formica. C. saussurei se distingue en particulier de Formica flori de l'ambre de la Baltique par la tête plus longue, les antennes à scape allongé et l'abdomen plus ovoïde. Il n'existe pas dans l'Oligocène d'Alsace. »[1].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype ♂ Am4 
+« Corps noir brunâtre ; ailes effacées, courtes, ne dépassant pas la longueur de l'abdomen. Tête arrondie ; semble plus longue que large parce que les mandibules font saillie ; yeux de forme ovale, placés vers le milieu de la tête ; clypéus non visible ; antennes coudées ; scape assez long, dépassant la tête vers l'arrière, funicule formé d'articles presque effacés. Cou net. Thorax ovale ; segmentation apparente ; pronotum visible sur le dos ; mésonotum large ; scutellum plus étroit ; pétiole formé d'un seul segment, mince et cylindrique à l'avant, renflé en nœud à l'arrière. Abdomen allongé, subcylindrique, rétréci à l'arrière. Pattes assez fortes et longues. Ailes transparentes ; nervation de Camponotus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 9,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_theobaldi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon présente les caractères des Camponotini. L'absence de cellule discoïdale écarte le g. Formica. C. saussurei se distingue en particulier de Formica flori de l'ambre de la Baltique par la tête plus longue, les antennes à scape allongé et l'abdomen plus ovoïde. Il n'existe pas dans l'Oligocène d'Alsace. ».
 </t>
         </is>
       </c>
